--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조_고려_조선.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사_대조_고려_조선.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -576,14 +576,760 @@
           <t>이황</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20221223</t>
-        </is>
+      <c r="D6" t="n">
+        <v>20221223</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>15시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">주리론 - '이' 중시, 이기이원론, 이기호발설 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>06시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>내수사(왕실 수요품 및 재산 관리)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>06시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>종부시(왕실 계보 관리)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>06시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>전의감</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>06시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>사복시(궁중 가마, 마필, 목장 관리)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>병조</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>06시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>군인전을 지급하였다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>경정 전시과</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>개정 전시과</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>상서원(옥새 및 마패 관리)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>06시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>상복사, 고율사, 장금사, 장례사</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>형조</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>제포만 개항, 세견선 25척, 세사미두 100석</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>중종 39년(1544)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>중종 7년(1512)</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>06시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>감영에 머물면서 지방과의 연락을 담당하였다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>경저리</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>영저리</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>(조선) 일정 기간 근무한 것을 평가하여 품계를 올려주는 인사 방식</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>포폄제</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>순자법</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>06시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>평시서(시전, 도량형, 물가 담당)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>06시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;주자서절요&gt; </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>사옹원(궁중 음식, 궁중 자기 관리</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>(조선) 수도권 안에 거주하는 서민 환자의 구제와 약재 판매를 담당</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>혜민서</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>혜민국</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>(조선) 지방민의 구호 및 진료를 담당하였다</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>혜민서</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>제생원</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>06시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>양현고</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>종학(종실 교육)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>06시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>정3품 통훈대부 ~ 종9품</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>참하관</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>당하관</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>06시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>액정서(왕실 붗, 벼루 관리, 열쇠 관리)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>이조</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>군자감(군수품)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>병조</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>06시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>사역원</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>07시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;만언봉사&gt; </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>공부와 연료를 조달하였다. 방납의 폐단을 발생시켰다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>영저리</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>경저리</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>내자시(궁중 식품, 연회 담당)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>호조</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>(조선) 관계의 차이가 나면 행직, 수직으로 조정함</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>서경제</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>행수법</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>세자익위사</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>병조</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">&lt;만언봉사&gt; </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>이황</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>이이</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>07시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>상의원(왕실 옷)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>예조</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>공조</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221224</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>최충헌 집권기, 경주에서 신라 부흥 표방</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>이연년 형제의 난</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>이비, 패좌의 난</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20221224</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
         </is>
       </c>
     </row>
